--- a/小扁担android一期评估.xlsx
+++ b/小扁担android一期评估.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>模块</t>
   </si>
@@ -36,6 +36,9 @@
     <t>启动页和广告页</t>
   </si>
   <si>
+    <t>布局完成</t>
+  </si>
+  <si>
     <t>登录模块</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>我的理赔</t>
   </si>
   <si>
+    <t>棉花交易</t>
+  </si>
+  <si>
     <t>合作社模块</t>
   </si>
   <si>
@@ -125,6 +131,9 @@
   </si>
   <si>
     <t>我的信用模块</t>
+  </si>
+  <si>
+    <t>布局正在完成</t>
   </si>
   <si>
     <t>信用首页</t>
@@ -163,9 +172,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -183,9 +192,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,55 +276,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,61 +308,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -329,13 +338,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,169 +500,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,21 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -545,30 +539,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,11 +567,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,15 +1115,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="3" width="20.775" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1139,17 +1149,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1157,12 +1170,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1170,7 +1183,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1178,7 +1191,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1186,18 +1199,18 @@
     </row>
     <row r="9" ht="27" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>3.5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>2.5</v>
@@ -1205,53 +1218,54 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>15</v>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="1"/>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>2.5</v>
@@ -1259,37 +1273,37 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -1297,7 +1311,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -1305,143 +1319,160 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
+      <c r="C31" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="1">
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D35" t="s">
         <v>38</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" t="s">
-        <v>34</v>
+      <c r="D38" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="1">
+        <v>46</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="3">
-        <f>SUM(B2:B40)</f>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3">
+        <f>SUM(B2:B41)</f>
         <v>56.5</v>
       </c>
     </row>

--- a/小扁担android一期评估.xlsx
+++ b/小扁担android一期评估.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>模块</t>
   </si>
@@ -131,9 +134,6 @@
   </si>
   <si>
     <t>我的信用模块</t>
-  </si>
-  <si>
-    <t>布局正在完成</t>
   </si>
   <si>
     <t>信用首页</t>
@@ -170,27 +170,172 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,11 +345,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -227,69 +558,416 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -488,8 +1166,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -509,20 +1185,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -539,8 +1214,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -565,8 +1239,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -591,8 +1264,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -617,8 +1289,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -643,8 +1314,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -669,8 +1339,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -695,8 +1364,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -721,8 +1389,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -747,8 +1414,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -761,9 +1427,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -777,8 +1449,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -798,8 +1468,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -824,8 +1493,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,8 +1518,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,8 +1543,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,8 +1568,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,8 +1593,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -954,8 +1618,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -980,8 +1643,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,8 +1668,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1032,8 +1693,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,9 +1706,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1059,8 +1725,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1080,20 +1744,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1110,8 +1773,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,8 +1798,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,8 +1823,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,8 +1848,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,8 +1873,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,8 +1898,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1266,8 +1923,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,8 +1948,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,8 +1973,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,97 +1986,104 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85833333333333" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.8672" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.8672" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.8672" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1562" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86719" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.86719" style="1" customWidth="1"/>
+    <col min="1" max="3" width="20.8666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1583333333333" style="1" customWidth="1"/>
+    <col min="5" max="256" width="8.86666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="61" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" ht="61" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" ht="16" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" ht="16" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" t="s" s="6">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" ht="16" customHeight="1" spans="1:5">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" t="s" s="6">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="8">
+    <row r="6" ht="16" customHeight="1" spans="1:5">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4">
@@ -1432,8 +2093,8 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="8">
+    <row r="7" ht="16" customHeight="1" spans="1:5">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4">
@@ -1443,8 +2104,8 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="8">
+    <row r="8" ht="16" customHeight="1" spans="1:5">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4">
@@ -1454,21 +2115,21 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="27" customHeight="1">
-      <c r="A9" t="s" s="8">
+    <row r="9" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4">
         <v>3.5</v>
       </c>
-      <c r="C9" t="s" s="5">
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="8">
+    <row r="10" ht="16" customHeight="1" spans="1:5">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="4">
@@ -1478,8 +2139,8 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="8">
+    <row r="11" ht="16" customHeight="1" spans="1:5">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="4">
@@ -1489,19 +2150,19 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="7">
+    <row r="12" ht="16" customHeight="1" spans="1:5">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
-      <c r="D12" t="s" s="2">
+      <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="2">
+    <row r="13" ht="16" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="4"/>
@@ -1509,8 +2170,8 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="8">
+    <row r="14" ht="16" customHeight="1" spans="1:5">
+      <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="4">
@@ -1520,8 +2181,8 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="8">
+    <row r="15" ht="16" customHeight="1" spans="1:5">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="4">
@@ -1531,8 +2192,8 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="8">
+    <row r="16" ht="16" customHeight="1" spans="1:5">
+      <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="4">
@@ -1542,8 +2203,8 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="8">
+    <row r="17" ht="16" customHeight="1" spans="1:5">
+      <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="4">
@@ -1553,8 +2214,8 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="8">
+    <row r="18" ht="16" customHeight="1" spans="1:5">
+      <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="4">
@@ -1564,8 +2225,8 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="8">
+    <row r="19" ht="16" customHeight="1" spans="1:5">
+      <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="4">
@@ -1575,8 +2236,8 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="2">
+    <row r="20" ht="16" customHeight="1" spans="1:5">
+      <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="4"/>
@@ -1584,8 +2245,8 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" t="s" s="8">
+    <row r="21" ht="16" customHeight="1" spans="1:5">
+      <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="4">
@@ -1595,8 +2256,8 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="8">
+    <row r="22" ht="16" customHeight="1" spans="1:5">
+      <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="4">
@@ -1606,8 +2267,8 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" t="s" s="8">
+    <row r="23" ht="16" customHeight="1" spans="1:5">
+      <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4">
@@ -1617,8 +2278,8 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="8">
+    <row r="24" ht="16" customHeight="1" spans="1:5">
+      <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="4">
@@ -1628,8 +2289,8 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" t="s" s="8">
+    <row r="25" ht="16" customHeight="1" spans="1:5">
+      <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="4">
@@ -1639,8 +2300,8 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="8">
+    <row r="26" ht="16" customHeight="1" spans="1:5">
+      <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="4">
@@ -1650,8 +2311,8 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" t="s" s="2">
+    <row r="27" ht="16" customHeight="1" spans="1:5">
+      <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="4"/>
@@ -1659,8 +2320,8 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="8">
+    <row r="28" ht="16" customHeight="1" spans="1:5">
+      <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="4">
@@ -1670,8 +2331,8 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="8">
+    <row r="29" ht="16" customHeight="1" spans="1:5">
+      <c r="A29" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="4">
@@ -1681,8 +2342,8 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" t="s" s="8">
+    <row r="30" ht="16" customHeight="1" spans="1:5">
+      <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="4">
@@ -1692,31 +2353,31 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" t="s" s="2">
+    <row r="31" ht="16" customHeight="1" spans="1:5">
+      <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" t="s" s="2">
+      <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" t="s" s="2">
+    <row r="32" ht="16" customHeight="1" spans="1:5">
+      <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
-      <c r="D32" t="s" s="2">
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" ht="16" customHeight="1" spans="1:5">
+      <c r="A33" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" t="s" s="8">
-        <v>40</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -1725,31 +2386,31 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" t="s" s="7">
-        <v>41</v>
+    <row r="34" ht="16" customHeight="1" spans="1:5">
+      <c r="A34" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" t="s" s="8">
-        <v>42</v>
+    <row r="35" ht="16" customHeight="1" spans="1:5">
+      <c r="A35" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B35" s="4">
         <v>1.5</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" t="s" s="2">
-        <v>39</v>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" t="s" s="8">
-        <v>43</v>
+    <row r="36" ht="16" customHeight="1" spans="1:5">
+      <c r="A36" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
@@ -1758,9 +2419,9 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" t="s" s="8">
-        <v>44</v>
+    <row r="37" ht="16" customHeight="1" spans="1:5">
+      <c r="A37" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B37" s="4">
         <v>1.5</v>
@@ -1769,44 +2430,44 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" t="s" s="8">
-        <v>45</v>
+    <row r="38" ht="16" customHeight="1" spans="1:5">
+      <c r="A38" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" t="s" s="2">
+      <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" t="s" s="2">
-        <v>46</v>
+    <row r="39" ht="16" customHeight="1" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" t="s" s="2">
+      <c r="C39" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" t="s" s="2">
-        <v>47</v>
+    <row r="40" ht="16" customHeight="1" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" t="s" s="2">
+      <c r="C40" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" ht="16" customHeight="1">
-      <c r="A41" t="s" s="2">
-        <v>48</v>
+    <row r="41" ht="16" customHeight="1" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B41" s="4">
         <v>10</v>
@@ -1815,9 +2476,9 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" ht="16" customHeight="1">
-      <c r="A42" t="s" s="8">
-        <v>49</v>
+    <row r="42" ht="16" customHeight="1" spans="1:5">
+      <c r="A42" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B42" s="9">
         <f>SUM(B2:B41)</f>
@@ -1828,8 +2489,8 @@
       <c r="E42" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/小扁担android一期评估.xlsx
+++ b/小扁担android一期评估.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>模块</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>保险模块</t>
-  </si>
-  <si>
-    <t>正在布局</t>
   </si>
   <si>
     <t>保险商品列表</t>
@@ -171,9 +168,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -187,36 +184,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,32 +209,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,30 +250,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
@@ -307,7 +280,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,8 +300,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,55 +347,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,127 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,11 +556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +576,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,36 +606,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,6 +636,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -661,148 +658,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2008,8 +2005,8 @@
   <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85833333333333" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="4"/>
@@ -2077,60 +2074,68 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4">
         <v>3.5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4">
         <v>2.5</v>
@@ -2141,18 +2146,20 @@
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
@@ -2163,7 +2170,7 @@
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
@@ -2172,7 +2179,7 @@
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4">
         <v>1.5</v>
@@ -2183,7 +2190,7 @@
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4">
         <v>2.5</v>
@@ -2194,7 +2201,7 @@
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4">
         <v>1.5</v>
@@ -2205,7 +2212,7 @@
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4">
         <v>2.5</v>
@@ -2216,7 +2223,7 @@
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4">
         <v>2.5</v>
@@ -2227,7 +2234,7 @@
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -2238,7 +2245,7 @@
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
@@ -2247,40 +2254,46 @@
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4">
         <v>1.5</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:5">
       <c r="A23" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -2291,7 +2304,7 @@
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="4">
         <v>1.5</v>
@@ -2302,7 +2315,7 @@
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -2313,27 +2326,29 @@
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="4">
         <v>1.5</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -2344,7 +2359,7 @@
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="4">
         <v>1.5</v>
@@ -2355,18 +2370,18 @@
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
@@ -2377,7 +2392,7 @@
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:5">
       <c r="A33" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -2388,7 +2403,7 @@
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:5">
       <c r="A34" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
@@ -2397,7 +2412,7 @@
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:5">
       <c r="A35" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="4">
         <v>1.5</v>
@@ -2410,18 +2425,20 @@
     </row>
     <row r="36" ht="16" customHeight="1" spans="1:5">
       <c r="A36" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:5">
       <c r="A37" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4">
         <v>1.5</v>
@@ -2432,7 +2449,7 @@
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -2445,29 +2462,29 @@
     </row>
     <row r="39" ht="16" customHeight="1" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" ht="16" customHeight="1" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4">
         <v>10</v>
@@ -2478,7 +2495,7 @@
     </row>
     <row r="42" ht="16" customHeight="1" spans="1:5">
       <c r="A42" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="9">
         <f>SUM(B2:B41)</f>
